--- a/Planilha 1 curso.xlsx
+++ b/Planilha 1 curso.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2b8e1d7cd17bea6a/Área de Trabalho/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2b8e1d7cd17bea6a/Documentos/_estudosAlura/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="38" documentId="8_{1F700892-1722-4775-97A5-31CAF4C35938}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8C260CFB-EC3C-414B-8BD2-C0CEBF0E6E8F}"/>
+  <xr:revisionPtr revIDLastSave="41" documentId="8_{1F700892-1722-4775-97A5-31CAF4C35938}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6410B1FC-EDAC-4D31-B135-EB5110E43ECE}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{3A3FEAAA-86B7-4CB2-B31A-5260AFB098BE}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16378" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16379" uniqueCount="10">
   <si>
     <t>TENIS INFANTIL VERMELHO</t>
   </si>
@@ -163,14 +163,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -180,6 +175,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -498,7 +496,7 @@
   <dimension ref="A1:XFD20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="A20" sqref="A20:B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -509,32 +507,32 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16384" s="1" customFormat="1" ht="21" x14ac:dyDescent="0.5">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="4"/>
+      <c r="B1" s="6"/>
     </row>
     <row r="2" spans="1:16384" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="5" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:16384" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="6">
+      <c r="A3" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="3">
         <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:16384" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="6">
+      <c r="A4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="3">
         <v>28</v>
       </c>
       <c r="AA4" s="1" t="s">
@@ -49613,128 +49611,132 @@
       </c>
     </row>
     <row r="5" spans="1:16384" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="6">
+      <c r="A5" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="3">
         <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:16384" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6" s="3">
         <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:16384" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B7" s="6">
+      <c r="B7" s="3">
         <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:16384" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B8" s="6">
+      <c r="B8" s="3">
         <v>29</v>
       </c>
     </row>
     <row r="9" spans="1:16384" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B9" s="6">
+      <c r="B9" s="3">
         <v>27</v>
       </c>
     </row>
     <row r="10" spans="1:16384" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B10" s="6">
+      <c r="B10" s="3">
         <v>28</v>
       </c>
     </row>
     <row r="11" spans="1:16384" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B11" s="6">
+      <c r="B11" s="3">
         <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:16384" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B12" s="6">
+      <c r="B12" s="3">
         <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:16384" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B13" s="6">
+      <c r="B13" s="3">
         <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:16384" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B14" s="6">
+      <c r="B14" s="3">
         <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:16384" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B15" s="6">
+      <c r="B15" s="3">
         <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:16384" s="1" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B16" s="6">
+      <c r="B16" s="3">
         <v>37</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A17" s="5" t="s">
+      <c r="A17" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B17" s="6">
+      <c r="B17" s="3">
         <v>38</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A18" s="5" t="s">
+      <c r="A18" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B18" s="6">
+      <c r="B18" s="3">
         <v>40</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A19" s="5" t="s">
+      <c r="A19" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B19" s="6">
+      <c r="B19" s="3">
         <v>37</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A20" s="2"/>
-      <c r="B20" s="3"/>
+      <c r="A20" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B20" s="3">
+        <v>37</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
